--- a/data/trans_bre/P2A_senso_R-Dificultad-trans_bre.xlsx
+++ b/data/trans_bre/P2A_senso_R-Dificultad-trans_bre.xlsx
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-2.57088596773036</v>
+        <v>-2.548455936875707</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-0.3701156511930091</v>
+        <v>-0.3515284891717104</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-1.020762967059042</v>
+        <v>-0.9968451470839051</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-2.461927803389205</v>
+        <v>-2.402934542763722</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>-0.5297343703333303</v>
+        <v>-0.5134897425497155</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>-0.1882077210799807</v>
+        <v>-0.199761926497196</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>-0.532975779988114</v>
+        <v>-0.5368866225855967</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>-0.4825582510826029</v>
+        <v>-0.4887201451761709</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>1.360080630000319</v>
+        <v>1.455425700059995</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>2.093172719673737</v>
+        <v>2.146452209786978</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.9638941313784257</v>
+        <v>0.953019963955643</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>1.738013511366864</v>
+        <v>1.682958213264376</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.5884032396868136</v>
+        <v>0.640958295265025</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>1.841273001411048</v>
+        <v>1.833352897022794</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>1.207387868721962</v>
+        <v>1.235093541846095</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>0.8117617469223873</v>
+        <v>0.7615430543361468</v>
       </c>
     </row>
     <row r="7">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-0.9025184869040874</v>
+        <v>-0.9268299389345612</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>-1.892291988038173</v>
+        <v>-1.874639526995645</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>-1.051724616225633</v>
+        <v>-1.116179836509701</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.4006323230370472</v>
+        <v>0.4330161859881544</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.6240333774781752</v>
+        <v>-0.6059747404699438</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.6074480926109372</v>
+        <v>-0.5897146202811731</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.7220858976965741</v>
+        <v>-0.7291828819589027</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>0.09743386925770245</v>
+        <v>0.1122469540361585</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.8993703441071041</v>
+        <v>0.8636211535439283</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.9292721522659937</v>
+        <v>0.9408556123065756</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.7572860200202859</v>
+        <v>0.7474790485106944</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>2.989801819723696</v>
+        <v>3.024145011361153</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>1.316052610074647</v>
+        <v>1.34118726510272</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.6054686074809538</v>
+        <v>0.6588045133814502</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>1.665830001276612</v>
+        <v>1.701186132439406</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>1.788262364854368</v>
+        <v>1.796455960773314</v>
       </c>
     </row>
     <row r="10">
@@ -837,7 +837,7 @@
         <v>-0.1919024221207321</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0.5302962792275462</v>
+        <v>0.5302962792275465</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>-0.3316176447594307</v>
@@ -849,7 +849,7 @@
         <v>-0.2454741899830422</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>0.2365403271465115</v>
+        <v>0.2365403271465116</v>
       </c>
     </row>
     <row r="11">
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-1.280686603991705</v>
+        <v>-1.225773203262044</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-0.6698658738817033</v>
+        <v>-0.7803170134372533</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-1.152422840197372</v>
+        <v>-1.156332912065866</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-0.9678574649719863</v>
+        <v>-0.9815993015317391</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>-0.773185639835634</v>
+        <v>-0.7418841522137183</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>-0.3449243666037652</v>
+        <v>-0.3546913227632604</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>-0.8885595924648562</v>
+        <v>-0.8414677064768549</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>-0.3327812801314098</v>
+        <v>-0.3462396528462935</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.3864975447054964</v>
+        <v>0.4932139681243414</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>1.975590048880968</v>
+        <v>1.888915208302977</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.5833526423748375</v>
+        <v>0.5998632122027695</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>1.88263710868276</v>
+        <v>1.87589837967535</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.5473664733334853</v>
+        <v>0.8980092703156172</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>2.237374088610482</v>
+        <v>2.092617716218197</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>2.26258702901945</v>
+        <v>2.279425945351759</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>1.176663054080977</v>
+        <v>1.266120150632341</v>
       </c>
     </row>
     <row r="13">
@@ -960,26 +960,24 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-0.8529565272318533</v>
+        <v>-0.7851563689426194</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>-0.1462394056993307</v>
+        <v>-0.1738679824733262</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>-0.3617778184219693</v>
+        <v>-0.3835242787688137</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>-1.150126271672823</v>
-      </c>
-      <c r="G14" s="6" t="n">
-        <v>-1</v>
-      </c>
-      <c r="H14" s="6" t="n">
-        <v>-0.6345009615924744</v>
-      </c>
-      <c r="I14" s="6" t="inlineStr"/>
+        <v>-1.199612857735725</v>
+      </c>
+      <c r="G14" s="6" t="inlineStr"/>
+      <c r="H14" s="6" t="inlineStr"/>
+      <c r="I14" s="6" t="n">
+        <v>-0.7545838339594633</v>
+      </c>
       <c r="J14" s="6" t="n">
-        <v>-0.3492887400278148</v>
+        <v>-0.3530267985898388</v>
       </c>
     </row>
     <row r="15">
@@ -990,24 +988,22 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>2.271034432214512</v>
+        <v>2.7460101952904</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>2.977481314005659</v>
+        <v>2.799930486817007</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>2.687006821634217</v>
+        <v>2.773218916997345</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>1.690732948953309</v>
-      </c>
-      <c r="G15" s="6" t="n">
-        <v>9.280259545147649</v>
-      </c>
+        <v>1.613324210909715</v>
+      </c>
+      <c r="G15" s="6" t="inlineStr"/>
       <c r="H15" s="6" t="inlineStr"/>
       <c r="I15" s="6" t="inlineStr"/>
       <c r="J15" s="6" t="n">
-        <v>1.168214242248333</v>
+        <v>1.041877717537484</v>
       </c>
     </row>
     <row r="16">
@@ -1031,7 +1027,7 @@
         <v>0.07496286601589489</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>0.7564796856927954</v>
+        <v>0.7564796856927961</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.04118422289350395</v>
@@ -1043,7 +1039,7 @@
         <v>0.07536886277061537</v>
       </c>
       <c r="J16" s="6" t="n">
-        <v>0.3080089523348727</v>
+        <v>0.308008952334873</v>
       </c>
     </row>
     <row r="17">
@@ -1054,28 +1050,28 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-0.5219576309836752</v>
+        <v>-0.5495119976793061</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-0.2107734894584791</v>
+        <v>-0.19428203271234</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-0.4322576697224547</v>
+        <v>-0.4729398872076737</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-0.01316373224657154</v>
+        <v>-0.03757598319317257</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>-0.3010281427481198</v>
+        <v>-0.3004242262789523</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>-0.1035240972000069</v>
+        <v>-0.09656571804771528</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>-0.3430894203974646</v>
+        <v>-0.3713539358353672</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>-0.006714748421408089</v>
+        <v>-0.01190199754204817</v>
       </c>
     </row>
     <row r="18">
@@ -1086,28 +1082,28 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.7052163912760501</v>
+        <v>0.6889264663853636</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>1.176245962455831</v>
+        <v>1.199050741065393</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.6127587927463278</v>
+        <v>0.5824013992077788</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>1.476716043818245</v>
+        <v>1.488698218542668</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.5806836222527569</v>
+        <v>0.6075874049667442</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.9433130399161477</v>
+        <v>0.9029258218733034</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.811928415686192</v>
+        <v>0.7522330019888578</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>0.7366567543009057</v>
+        <v>0.747839113244987</v>
       </c>
     </row>
     <row r="19">
